--- a/Exam/Priser for OpenAI.xlsx
+++ b/Exam/Priser for OpenAI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soren\Documents\GitHub\IntroSocial23\Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04689BD-085F-4247-8DC5-895553E1D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D533D8C-133A-4176-9DE2-7097DE341943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="0" windowWidth="22320" windowHeight="15585" xr2:uid="{6C2A05CF-E174-4079-A1BC-56644A938D84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C2A05CF-E174-4079-A1BC-56644A938D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Pris pr. 1000</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Pris pr. token</t>
+  </si>
+  <si>
+    <t>Pris input: Artikel</t>
+  </si>
+  <si>
+    <t>Pris input: Fast tekst</t>
+  </si>
+  <si>
+    <t>Antal sekunder</t>
+  </si>
+  <si>
+    <t>Headings pr. sekund</t>
+  </si>
+  <si>
+    <t>Minutter</t>
+  </si>
+  <si>
+    <t>Timer</t>
   </si>
 </sst>
 </file>
@@ -122,10 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,35 +457,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E48A19-C125-4342-B255-5A466FCE2894}">
-  <dimension ref="C1:F15"/>
+  <dimension ref="C1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <f>0.0015</f>
         <v>1.5E-3</v>
@@ -476,22 +501,31 @@
       <c r="F3" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <f>E3/1000</f>
         <v>1.5E-6</v>
@@ -500,13 +534,17 @@
         <f>F3/1000</f>
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>H3/1000</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,24 +555,31 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>12.26</v>
       </c>
       <c r="E9" s="1">
         <f>E6*D9</f>
-        <v>1.8E-5</v>
+        <v>1.8390000000000002E-5</v>
       </c>
       <c r="F9" s="1">
         <f>F6*D9</f>
-        <v>3.6000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+        <v>3.6780000000000004E-5</v>
+      </c>
+      <c r="H9">
+        <f>50*H6</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,37 +596,54 @@
         <v>2.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>85277</v>
+        <v>196034</v>
       </c>
       <c r="E14" s="1">
         <f>E9*D14</f>
-        <v>1.534986</v>
+        <v>3.6050652600000004</v>
       </c>
       <c r="F14" s="1">
         <f>F9*D14</f>
-        <v>3.0699719999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+        <v>7.2101305200000008</v>
+      </c>
+      <c r="H14">
+        <f>D14*H9</f>
+        <v>19.603399999999997</v>
+      </c>
+      <c r="J14">
+        <f>E14+H14</f>
+        <v>23.208465259999997</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1">
@@ -594,6 +656,43 @@
       <c r="F15" s="1">
         <f>F10*D15</f>
         <v>193.15240500000002</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <f>D14/H19</f>
+        <v>98017</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <f>H20/60</f>
+        <v>1633.6166666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <f>H21/60</f>
+        <v>27.226944444444442</v>
       </c>
     </row>
   </sheetData>
